--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2777,28 +2777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3109.908400083613</v>
+        <v>3403.529872775283</v>
       </c>
       <c r="AB2" t="n">
-        <v>4255.1138724702</v>
+        <v>4656.859725072118</v>
       </c>
       <c r="AC2" t="n">
-        <v>3849.011776571312</v>
+        <v>4212.415568854733</v>
       </c>
       <c r="AD2" t="n">
-        <v>3109908.400083613</v>
+        <v>3403529.872775283</v>
       </c>
       <c r="AE2" t="n">
-        <v>4255113.8724702</v>
+        <v>4656859.725072118</v>
       </c>
       <c r="AF2" t="n">
         <v>2.67220018301464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.7375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3849011.776571312</v>
+        <v>4212415.568854733</v>
       </c>
     </row>
     <row r="3">
@@ -2883,28 +2883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1125.74741732312</v>
+        <v>1282.262272422208</v>
       </c>
       <c r="AB3" t="n">
-        <v>1540.297280852403</v>
+        <v>1754.447810547056</v>
       </c>
       <c r="AC3" t="n">
-        <v>1393.29347018866</v>
+        <v>1587.005773891411</v>
       </c>
       <c r="AD3" t="n">
-        <v>1125747.41732312</v>
+        <v>1282262.272422208</v>
       </c>
       <c r="AE3" t="n">
-        <v>1540297.280852403</v>
+        <v>1754447.810547056</v>
       </c>
       <c r="AF3" t="n">
         <v>5.014048017494765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.30416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1393293.47018866</v>
+        <v>1587005.773891411</v>
       </c>
     </row>
     <row r="4">
@@ -2989,28 +2989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>877.2810684213237</v>
+        <v>1014.28620078742</v>
       </c>
       <c r="AB4" t="n">
-        <v>1200.33466072328</v>
+        <v>1387.791127066431</v>
       </c>
       <c r="AC4" t="n">
-        <v>1085.776405384127</v>
+        <v>1255.34228967629</v>
       </c>
       <c r="AD4" t="n">
-        <v>877281.0684213237</v>
+        <v>1014286.20078742</v>
       </c>
       <c r="AE4" t="n">
-        <v>1200334.66072328</v>
+        <v>1387791.127066432</v>
       </c>
       <c r="AF4" t="n">
         <v>5.849157660255331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1085776.405384127</v>
+        <v>1255342.28967629</v>
       </c>
     </row>
     <row r="5">
@@ -3095,28 +3095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.3685798598932</v>
+        <v>896.5851909556409</v>
       </c>
       <c r="AB5" t="n">
-        <v>1052.684033110533</v>
+        <v>1226.747412812514</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.217346441783</v>
+        <v>1109.668361484494</v>
       </c>
       <c r="AD5" t="n">
-        <v>769368.5798598932</v>
+        <v>896585.1909556409</v>
       </c>
       <c r="AE5" t="n">
-        <v>1052684.033110533</v>
+        <v>1226747.412812514</v>
       </c>
       <c r="AF5" t="n">
         <v>6.313609707852886e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.85833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>952217.346441783</v>
+        <v>1109668.361484494</v>
       </c>
     </row>
     <row r="6">
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>708.4248035792411</v>
+        <v>835.6072492562081</v>
       </c>
       <c r="AB6" t="n">
-        <v>969.2980697536913</v>
+        <v>1143.314702822423</v>
       </c>
       <c r="AC6" t="n">
-        <v>876.7896223947835</v>
+        <v>1034.198352237314</v>
       </c>
       <c r="AD6" t="n">
-        <v>708424.8035792412</v>
+        <v>835607.2492562081</v>
       </c>
       <c r="AE6" t="n">
-        <v>969298.0697536913</v>
+        <v>1143314.702822424</v>
       </c>
       <c r="AF6" t="n">
         <v>6.589719481485496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.81666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>876789.6223947834</v>
+        <v>1034198.352237314</v>
       </c>
     </row>
     <row r="7">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>668.8782032632914</v>
+        <v>786.2389732809864</v>
       </c>
       <c r="AB7" t="n">
-        <v>915.1886665285358</v>
+        <v>1075.766849658503</v>
       </c>
       <c r="AC7" t="n">
-        <v>827.8443446704124</v>
+        <v>973.0971713753509</v>
       </c>
       <c r="AD7" t="n">
-        <v>668878.2032632914</v>
+        <v>786238.9732809864</v>
       </c>
       <c r="AE7" t="n">
-        <v>915188.6665285358</v>
+        <v>1075766.849658503</v>
       </c>
       <c r="AF7" t="n">
         <v>6.784465392765248e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.13333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>827844.3446704124</v>
+        <v>973097.1713753509</v>
       </c>
     </row>
     <row r="8">
@@ -3413,28 +3413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>646.4782749231898</v>
+        <v>763.9063647485892</v>
       </c>
       <c r="AB8" t="n">
-        <v>884.5400963585151</v>
+        <v>1045.210389419324</v>
       </c>
       <c r="AC8" t="n">
-        <v>800.12083102188</v>
+        <v>945.4569768151378</v>
       </c>
       <c r="AD8" t="n">
-        <v>646478.2749231898</v>
+        <v>763906.3647485892</v>
       </c>
       <c r="AE8" t="n">
-        <v>884540.0963585151</v>
+        <v>1045210.389419324</v>
       </c>
       <c r="AF8" t="n">
         <v>6.842851497694381e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>800120.83102188</v>
+        <v>945456.9768151378</v>
       </c>
     </row>
     <row r="9">
@@ -3519,28 +3519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>646.6038159207659</v>
+        <v>764.0319057461652</v>
       </c>
       <c r="AB9" t="n">
-        <v>884.7118670898767</v>
+        <v>1045.382160150685</v>
       </c>
       <c r="AC9" t="n">
-        <v>800.2762081957222</v>
+        <v>945.61235398898</v>
       </c>
       <c r="AD9" t="n">
-        <v>646603.8159207659</v>
+        <v>764031.9057461652</v>
       </c>
       <c r="AE9" t="n">
-        <v>884711.8670898767</v>
+        <v>1045382.160150685</v>
       </c>
       <c r="AF9" t="n">
         <v>6.856412141419858e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.89166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>800276.2081957222</v>
+        <v>945612.3539889799</v>
       </c>
     </row>
   </sheetData>
@@ -3816,28 +3816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1950.792652075045</v>
+        <v>2173.377962719827</v>
       </c>
       <c r="AB2" t="n">
-        <v>2669.160569466872</v>
+        <v>2973.711611261924</v>
       </c>
       <c r="AC2" t="n">
-        <v>2414.419630907341</v>
+        <v>2689.904748713544</v>
       </c>
       <c r="AD2" t="n">
-        <v>1950792.652075046</v>
+        <v>2173377.962719827</v>
       </c>
       <c r="AE2" t="n">
-        <v>2669160.569466872</v>
+        <v>2973711.611261924</v>
       </c>
       <c r="AF2" t="n">
         <v>3.726358835679309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2414419.630907341</v>
+        <v>2689904.748713545</v>
       </c>
     </row>
     <row r="3">
@@ -3922,28 +3922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>903.2920494770426</v>
+        <v>1048.466121309883</v>
       </c>
       <c r="AB3" t="n">
-        <v>1235.924032527211</v>
+        <v>1434.557602236937</v>
       </c>
       <c r="AC3" t="n">
-        <v>1117.969177493087</v>
+        <v>1297.645438093683</v>
       </c>
       <c r="AD3" t="n">
-        <v>903292.0494770426</v>
+        <v>1048466.121309883</v>
       </c>
       <c r="AE3" t="n">
-        <v>1235924.032527211</v>
+        <v>1434557.602236937</v>
       </c>
       <c r="AF3" t="n">
         <v>6.003143064004992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1117969.177493087</v>
+        <v>1297645.438093683</v>
       </c>
     </row>
     <row r="4">
@@ -4028,28 +4028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.4569956591977</v>
+        <v>858.2026493841179</v>
       </c>
       <c r="AB4" t="n">
-        <v>1002.179975182975</v>
+        <v>1174.23072611613</v>
       </c>
       <c r="AC4" t="n">
-        <v>906.5333249199407</v>
+        <v>1062.163793658781</v>
       </c>
       <c r="AD4" t="n">
-        <v>732456.9956591977</v>
+        <v>858202.6493841179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1002179.975182975</v>
+        <v>1174230.72611613</v>
       </c>
       <c r="AF4" t="n">
         <v>6.827055387035956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.15416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>906533.3249199407</v>
+        <v>1062163.793658781</v>
       </c>
     </row>
     <row r="5">
@@ -4134,28 +4134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>632.7984606241512</v>
+        <v>748.8635651989633</v>
       </c>
       <c r="AB5" t="n">
-        <v>865.8227709237573</v>
+        <v>1024.628167434047</v>
       </c>
       <c r="AC5" t="n">
-        <v>783.1898608566843</v>
+        <v>926.8390932088059</v>
       </c>
       <c r="AD5" t="n">
-        <v>632798.4606241512</v>
+        <v>748863.5651989633</v>
       </c>
       <c r="AE5" t="n">
-        <v>865822.7709237572</v>
+        <v>1024628.167434047</v>
       </c>
       <c r="AF5" t="n">
         <v>7.357508193309517e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>783189.8608566843</v>
+        <v>926839.0932088059</v>
       </c>
     </row>
     <row r="6">
@@ -4240,28 +4240,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>617.061107465345</v>
+        <v>733.126212040157</v>
       </c>
       <c r="AB6" t="n">
-        <v>844.2902300488572</v>
+        <v>1003.095626559147</v>
       </c>
       <c r="AC6" t="n">
-        <v>763.7123554617737</v>
+        <v>907.3615878138954</v>
       </c>
       <c r="AD6" t="n">
-        <v>617061.1074653449</v>
+        <v>733126.2120401571</v>
       </c>
       <c r="AE6" t="n">
-        <v>844290.2300488572</v>
+        <v>1003095.626559147</v>
       </c>
       <c r="AF6" t="n">
         <v>7.428400099043047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.11666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>763712.3554617737</v>
+        <v>907361.5878138954</v>
       </c>
     </row>
     <row r="7">
@@ -4346,28 +4346,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>618.908539053778</v>
+        <v>734.97364362859</v>
       </c>
       <c r="AB7" t="n">
-        <v>846.8179674510807</v>
+        <v>1005.623363961371</v>
       </c>
       <c r="AC7" t="n">
-        <v>765.9988491540308</v>
+        <v>909.6480815061524</v>
       </c>
       <c r="AD7" t="n">
-        <v>618908.5390537779</v>
+        <v>734973.64362859</v>
       </c>
       <c r="AE7" t="n">
-        <v>846817.9674510807</v>
+        <v>1005623.363961371</v>
       </c>
       <c r="AF7" t="n">
         <v>7.42798793680041e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.12083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>765998.8491540308</v>
+        <v>909648.0815061524</v>
       </c>
     </row>
   </sheetData>
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.318701046533</v>
+        <v>846.6167617236499</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.4164073537536</v>
+        <v>1158.378403485788</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.1829818098573</v>
+        <v>1047.824394451404</v>
       </c>
       <c r="AD2" t="n">
-        <v>706318.701046533</v>
+        <v>846616.7617236499</v>
       </c>
       <c r="AE2" t="n">
-        <v>966416.4073537536</v>
+        <v>1158378.403485788</v>
       </c>
       <c r="AF2" t="n">
         <v>8.282437661168608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.94166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>874182.9818098573</v>
+        <v>1047824.394451404</v>
       </c>
     </row>
     <row r="3">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>556.3365275446843</v>
+        <v>668.5691540324788</v>
       </c>
       <c r="AB3" t="n">
-        <v>761.2041808220159</v>
+        <v>914.7658117366482</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.5559221611398</v>
+        <v>827.4618465463822</v>
       </c>
       <c r="AD3" t="n">
-        <v>556336.5275446842</v>
+        <v>668569.1540324788</v>
       </c>
       <c r="AE3" t="n">
-        <v>761204.180822016</v>
+        <v>914765.8117366482</v>
       </c>
       <c r="AF3" t="n">
         <v>9.584892260382731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.00833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>688555.9221611399</v>
+        <v>827461.8465463822</v>
       </c>
     </row>
   </sheetData>
@@ -5046,28 +5046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1013.934742788126</v>
+        <v>1184.552674263185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1387.310246726566</v>
+        <v>1620.757227702639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1254.907303881142</v>
+        <v>1466.074432637754</v>
       </c>
       <c r="AD2" t="n">
-        <v>1013934.742788126</v>
+        <v>1184552.674263185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1387310.246726566</v>
+        <v>1620757.227702639</v>
       </c>
       <c r="AF2" t="n">
         <v>6.160242326499482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.69583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1254907.303881142</v>
+        <v>1466074.432637754</v>
       </c>
     </row>
     <row r="3">
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>609.9284576461264</v>
+        <v>733.167703897571</v>
       </c>
       <c r="AB3" t="n">
-        <v>834.5310238959008</v>
+        <v>1003.152397548953</v>
       </c>
       <c r="AC3" t="n">
-        <v>754.8845542469235</v>
+        <v>907.4129406601123</v>
       </c>
       <c r="AD3" t="n">
-        <v>609928.4576461264</v>
+        <v>733167.703897571</v>
       </c>
       <c r="AE3" t="n">
-        <v>834531.0238959008</v>
+        <v>1003152.397548953</v>
       </c>
       <c r="AF3" t="n">
         <v>8.316451690760685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>754884.5542469234</v>
+        <v>907412.9406601123</v>
       </c>
     </row>
     <row r="4">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.5547954542504</v>
+        <v>685.7598762869144</v>
       </c>
       <c r="AB4" t="n">
-        <v>769.7122893065035</v>
+        <v>938.2869163263077</v>
       </c>
       <c r="AC4" t="n">
-        <v>696.2520287130731</v>
+        <v>848.7381299260821</v>
       </c>
       <c r="AD4" t="n">
-        <v>562554.7954542504</v>
+        <v>685759.8762869143</v>
       </c>
       <c r="AE4" t="n">
-        <v>769712.2893065035</v>
+        <v>938286.9163263077</v>
       </c>
       <c r="AF4" t="n">
         <v>8.666686252469471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95</v>
       </c>
       <c r="AH4" t="n">
-        <v>696252.0287130731</v>
+        <v>848738.1299260821</v>
       </c>
     </row>
   </sheetData>
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.7507752980119</v>
+        <v>681.2340145557115</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.9297522890081</v>
+        <v>932.0944326387479</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.8803162811065</v>
+        <v>843.1366481904577</v>
       </c>
       <c r="AD2" t="n">
-        <v>551750.775298012</v>
+        <v>681234.0145557115</v>
       </c>
       <c r="AE2" t="n">
-        <v>754929.7522890081</v>
+        <v>932094.4326387479</v>
       </c>
       <c r="AF2" t="n">
         <v>1.035024044080984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.525</v>
       </c>
       <c r="AH2" t="n">
-        <v>682880.3162811066</v>
+        <v>843136.6481904576</v>
       </c>
     </row>
     <row r="3">
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>550.8276142935935</v>
+        <v>671.0264559711924</v>
       </c>
       <c r="AB3" t="n">
-        <v>753.6666426757737</v>
+        <v>918.1280006577065</v>
       </c>
       <c r="AC3" t="n">
-        <v>681.7377560765736</v>
+        <v>830.5031528756763</v>
       </c>
       <c r="AD3" t="n">
-        <v>550827.6142935934</v>
+        <v>671026.4559711923</v>
       </c>
       <c r="AE3" t="n">
-        <v>753666.6426757737</v>
+        <v>918128.0006577065</v>
       </c>
       <c r="AF3" t="n">
         <v>1.040690715063348e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>681737.7560765736</v>
+        <v>830503.1528756763</v>
       </c>
     </row>
   </sheetData>
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2171.593736053192</v>
+        <v>2414.282788105083</v>
       </c>
       <c r="AB2" t="n">
-        <v>2971.270353622108</v>
+        <v>3303.328221325031</v>
       </c>
       <c r="AC2" t="n">
-        <v>2687.696481276546</v>
+        <v>2988.063212131923</v>
       </c>
       <c r="AD2" t="n">
-        <v>2171593.736053192</v>
+        <v>2414282.788105083</v>
       </c>
       <c r="AE2" t="n">
-        <v>2971270.353622108</v>
+        <v>3303328.221325031</v>
       </c>
       <c r="AF2" t="n">
         <v>3.437649994325476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>2687696.481276546</v>
+        <v>2988063.212131923</v>
       </c>
     </row>
     <row r="3">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.30328550434</v>
+        <v>1105.835730760256</v>
       </c>
       <c r="AB3" t="n">
-        <v>1313.929320817981</v>
+        <v>1513.053232855479</v>
       </c>
       <c r="AC3" t="n">
-        <v>1188.529750550496</v>
+        <v>1368.649555895301</v>
       </c>
       <c r="AD3" t="n">
-        <v>960303.28550434</v>
+        <v>1105835.730760256</v>
       </c>
       <c r="AE3" t="n">
-        <v>1313929.320817981</v>
+        <v>1513053.232855479</v>
       </c>
       <c r="AF3" t="n">
         <v>5.72257916453292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.2875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1188529.750550496</v>
+        <v>1368649.555895301</v>
       </c>
     </row>
     <row r="4">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>764.9187571232389</v>
+        <v>891.1348302079867</v>
       </c>
       <c r="AB4" t="n">
-        <v>1046.595589329919</v>
+        <v>1219.289988784627</v>
       </c>
       <c r="AC4" t="n">
-        <v>946.7099751904059</v>
+        <v>1102.922663539269</v>
       </c>
       <c r="AD4" t="n">
-        <v>764918.757123239</v>
+        <v>891134.8302079868</v>
       </c>
       <c r="AE4" t="n">
-        <v>1046595.589329919</v>
+        <v>1219289.988784627</v>
       </c>
       <c r="AF4" t="n">
         <v>6.560373120093932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>946709.9751904059</v>
+        <v>1102922.663539269</v>
       </c>
     </row>
     <row r="5">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.8688149479884</v>
+        <v>796.0165571951748</v>
       </c>
       <c r="AB5" t="n">
-        <v>916.5440651382413</v>
+        <v>1089.144971326454</v>
       </c>
       <c r="AC5" t="n">
-        <v>829.0703859391215</v>
+        <v>985.1985038876245</v>
       </c>
       <c r="AD5" t="n">
-        <v>669868.8149479884</v>
+        <v>796016.5571951747</v>
       </c>
       <c r="AE5" t="n">
-        <v>916544.0651382413</v>
+        <v>1089144.971326454</v>
       </c>
       <c r="AF5" t="n">
         <v>7.027333649333651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>829070.3859391215</v>
+        <v>985198.5038876245</v>
       </c>
     </row>
     <row r="6">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>632.2381106133007</v>
+        <v>748.6437697727368</v>
       </c>
       <c r="AB6" t="n">
-        <v>865.0560753180138</v>
+        <v>1024.327433635194</v>
       </c>
       <c r="AC6" t="n">
-        <v>782.4963376034891</v>
+        <v>926.5670610216328</v>
       </c>
       <c r="AD6" t="n">
-        <v>632238.1106133007</v>
+        <v>748643.7697727368</v>
       </c>
       <c r="AE6" t="n">
-        <v>865056.0753180138</v>
+        <v>1024327.433635194</v>
       </c>
       <c r="AF6" t="n">
         <v>7.232458429619832e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.17083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>782496.3376034891</v>
+        <v>926567.0610216327</v>
       </c>
     </row>
     <row r="7">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>628.7978827084103</v>
+        <v>735.5629440065811</v>
       </c>
       <c r="AB7" t="n">
-        <v>860.3490037263991</v>
+        <v>1006.429670736636</v>
       </c>
       <c r="AC7" t="n">
-        <v>778.2385023181615</v>
+        <v>910.3774354944449</v>
       </c>
       <c r="AD7" t="n">
-        <v>628797.8827084103</v>
+        <v>735562.9440065811</v>
       </c>
       <c r="AE7" t="n">
-        <v>860349.0037263992</v>
+        <v>1006429.670736636</v>
       </c>
       <c r="AF7" t="n">
         <v>7.257395167615407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.09166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>778238.5023181615</v>
+        <v>910377.4354944448</v>
       </c>
     </row>
   </sheetData>
@@ -6785,28 +6785,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.9570095517957</v>
+        <v>680.6102666355948</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.2119310934486</v>
+        <v>931.240993216628</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.1355643364913</v>
+        <v>842.3646598289751</v>
       </c>
       <c r="AD2" t="n">
-        <v>551957.0095517958</v>
+        <v>680610.2666355948</v>
       </c>
       <c r="AE2" t="n">
-        <v>755211.9310934485</v>
+        <v>931240.993216628</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087157550676627e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>683135.5643364913</v>
+        <v>842364.6598289751</v>
       </c>
     </row>
   </sheetData>
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1411.02444147266</v>
+        <v>1602.691831918036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1930.625890827867</v>
+        <v>2192.873670203718</v>
       </c>
       <c r="AC2" t="n">
-        <v>1746.369665457711</v>
+        <v>1983.588884837001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1411024.44147266</v>
+        <v>1602691.831918036</v>
       </c>
       <c r="AE2" t="n">
-        <v>1930625.890827867</v>
+        <v>2192873.670203718</v>
       </c>
       <c r="AF2" t="n">
         <v>4.7559777447218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1746369.665457711</v>
+        <v>1983588.884837001</v>
       </c>
     </row>
     <row r="3">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>752.7139172646555</v>
+        <v>886.9179648161775</v>
       </c>
       <c r="AB3" t="n">
-        <v>1029.896388995872</v>
+        <v>1213.520287520582</v>
       </c>
       <c r="AC3" t="n">
-        <v>931.6045230987654</v>
+        <v>1097.703614466038</v>
       </c>
       <c r="AD3" t="n">
-        <v>752713.9172646555</v>
+        <v>886917.9648161775</v>
       </c>
       <c r="AE3" t="n">
-        <v>1029896.388995872</v>
+        <v>1213520.287520582</v>
       </c>
       <c r="AF3" t="n">
         <v>6.990104116512055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>931604.5230987654</v>
+        <v>1097703.614466038</v>
       </c>
     </row>
     <row r="4">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.5870626563812</v>
+        <v>738.1685010055293</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.536888677193</v>
+        <v>1009.994708771659</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.4126663192646</v>
+        <v>913.6022313029675</v>
       </c>
       <c r="AD4" t="n">
-        <v>613587.0626563813</v>
+        <v>738168.5010055293</v>
       </c>
       <c r="AE4" t="n">
-        <v>839536.888677193</v>
+        <v>1009994.708771659</v>
       </c>
       <c r="AF4" t="n">
         <v>7.79501704805374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>759412.6663192647</v>
+        <v>913602.2313029675</v>
       </c>
     </row>
     <row r="5">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>587.949662416159</v>
+        <v>702.9095025927904</v>
       </c>
       <c r="AB5" t="n">
-        <v>804.4586666262472</v>
+        <v>961.7517916261221</v>
       </c>
       <c r="AC5" t="n">
-        <v>727.6822605482673</v>
+        <v>869.9635504604418</v>
       </c>
       <c r="AD5" t="n">
-        <v>587949.6624161589</v>
+        <v>702909.5025927904</v>
       </c>
       <c r="AE5" t="n">
-        <v>804458.6666262472</v>
+        <v>961751.7916261221</v>
       </c>
       <c r="AF5" t="n">
         <v>7.985937375913849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.38333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>727682.2605482673</v>
+        <v>869963.5504604417</v>
       </c>
     </row>
   </sheetData>
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.905290955159</v>
+        <v>1965.812040086487</v>
       </c>
       <c r="AB2" t="n">
-        <v>2386.088154756439</v>
+        <v>2689.71075875276</v>
       </c>
       <c r="AC2" t="n">
-        <v>2158.363250162242</v>
+        <v>2433.008538970156</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743905.290955159</v>
+        <v>1965812.040086487</v>
       </c>
       <c r="AE2" t="n">
-        <v>2386088.154756438</v>
+        <v>2689710.75875276</v>
       </c>
       <c r="AF2" t="n">
         <v>4.040809798990402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.62083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2158363.250162242</v>
+        <v>2433008.538970156</v>
       </c>
     </row>
     <row r="3">
@@ -7803,19 +7803,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>850.4704666044985</v>
+        <v>995.1684922683861</v>
       </c>
       <c r="AB3" t="n">
-        <v>1163.651212517226</v>
+        <v>1361.633434856915</v>
       </c>
       <c r="AC3" t="n">
-        <v>1052.593973989315</v>
+        <v>1231.681050898699</v>
       </c>
       <c r="AD3" t="n">
-        <v>850470.4666044984</v>
+        <v>995168.4922683861</v>
       </c>
       <c r="AE3" t="n">
-        <v>1163651.212517226</v>
+        <v>1361633.434856915</v>
       </c>
       <c r="AF3" t="n">
         <v>6.294728832598113e-06</v>
@@ -7824,7 +7824,7 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>1052593.973989315</v>
+        <v>1231681.050898699</v>
       </c>
     </row>
     <row r="4">
@@ -7909,28 +7909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>689.2553851172095</v>
+        <v>814.6853953330182</v>
       </c>
       <c r="AB4" t="n">
-        <v>943.0696257188832</v>
+        <v>1114.688499277662</v>
       </c>
       <c r="AC4" t="n">
-        <v>853.064384246805</v>
+        <v>1008.304193381736</v>
       </c>
       <c r="AD4" t="n">
-        <v>689255.3851172095</v>
+        <v>814685.3953330182</v>
       </c>
       <c r="AE4" t="n">
-        <v>943069.6257188832</v>
+        <v>1114688.499277662</v>
       </c>
       <c r="AF4" t="n">
         <v>7.125565353244799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>853064.3842468051</v>
+        <v>1008304.193381736</v>
       </c>
     </row>
     <row r="5">
@@ -8015,28 +8015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>620.0419655105734</v>
+        <v>735.7535654852477</v>
       </c>
       <c r="AB5" t="n">
-        <v>848.3687715325144</v>
+        <v>1006.690487453373</v>
       </c>
       <c r="AC5" t="n">
-        <v>767.4016466704995</v>
+        <v>910.6133602297956</v>
       </c>
       <c r="AD5" t="n">
-        <v>620041.9655105734</v>
+        <v>735753.5654852476</v>
       </c>
       <c r="AE5" t="n">
-        <v>848368.7715325144</v>
+        <v>1006690.487453373</v>
       </c>
       <c r="AF5" t="n">
         <v>7.508410083990854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.475</v>
       </c>
       <c r="AH5" t="n">
-        <v>767401.6466704996</v>
+        <v>910613.3602297956</v>
       </c>
     </row>
     <row r="6">
@@ -8121,28 +8121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>609.7507620421616</v>
+        <v>725.4623620168358</v>
       </c>
       <c r="AB6" t="n">
-        <v>834.2878929311792</v>
+        <v>992.6096088520379</v>
       </c>
       <c r="AC6" t="n">
-        <v>754.6646273602387</v>
+        <v>897.8763409195344</v>
       </c>
       <c r="AD6" t="n">
-        <v>609750.7620421615</v>
+        <v>725462.3620168357</v>
       </c>
       <c r="AE6" t="n">
-        <v>834287.8929311791</v>
+        <v>992609.6088520379</v>
       </c>
       <c r="AF6" t="n">
         <v>7.584132964436759e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.24166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>754664.6273602387</v>
+        <v>897876.3409195344</v>
       </c>
     </row>
   </sheetData>
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2739.60356655953</v>
+        <v>3022.623284629553</v>
       </c>
       <c r="AB2" t="n">
-        <v>3748.446462546254</v>
+        <v>4135.686526758428</v>
       </c>
       <c r="AC2" t="n">
-        <v>3390.69999313835</v>
+        <v>3740.982409116944</v>
       </c>
       <c r="AD2" t="n">
-        <v>2739603.56655953</v>
+        <v>3022623.284629553</v>
       </c>
       <c r="AE2" t="n">
-        <v>3748446.462546254</v>
+        <v>4135686.526758428</v>
       </c>
       <c r="AF2" t="n">
         <v>2.913806297107911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.99583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3390699.99313835</v>
+        <v>3740982.409116944</v>
       </c>
     </row>
     <row r="3">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1062.768512559606</v>
+        <v>1218.939706769164</v>
       </c>
       <c r="AB3" t="n">
-        <v>1454.126764921776</v>
+        <v>1667.807082626126</v>
       </c>
       <c r="AC3" t="n">
-        <v>1315.346947357374</v>
+        <v>1508.633915442229</v>
       </c>
       <c r="AD3" t="n">
-        <v>1062768.512559606</v>
+        <v>1218939.706769164</v>
       </c>
       <c r="AE3" t="n">
-        <v>1454126.764921776</v>
+        <v>1667807.082626126</v>
       </c>
       <c r="AF3" t="n">
         <v>5.243466921085701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.55833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1315346.947357374</v>
+        <v>1508633.915442229</v>
       </c>
     </row>
     <row r="4">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>842.7724722834819</v>
+        <v>979.3165113130126</v>
       </c>
       <c r="AB4" t="n">
-        <v>1153.11847707567</v>
+        <v>1339.94405517373</v>
       </c>
       <c r="AC4" t="n">
-        <v>1043.066468035514</v>
+        <v>1212.061675171242</v>
       </c>
       <c r="AD4" t="n">
-        <v>842772.4722834819</v>
+        <v>979316.5113130126</v>
       </c>
       <c r="AE4" t="n">
-        <v>1153118.47707567</v>
+        <v>1339944.05517373</v>
       </c>
       <c r="AF4" t="n">
         <v>6.068346755755949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.40416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1043066.468035514</v>
+        <v>1212061.675171242</v>
       </c>
     </row>
     <row r="5">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>740.0948335507765</v>
+        <v>866.9775228300211</v>
       </c>
       <c r="AB5" t="n">
-        <v>1012.63040194386</v>
+        <v>1186.23689508491</v>
       </c>
       <c r="AC5" t="n">
-        <v>915.9863776180327</v>
+        <v>1073.024110711944</v>
       </c>
       <c r="AD5" t="n">
-        <v>740094.8335507765</v>
+        <v>866977.5228300211</v>
       </c>
       <c r="AE5" t="n">
-        <v>1012630.40194386</v>
+        <v>1186236.89508491</v>
       </c>
       <c r="AF5" t="n">
         <v>6.531740788752521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.52916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>915986.3776180327</v>
+        <v>1073024.110711944</v>
       </c>
     </row>
     <row r="6">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>690.9867303128882</v>
+        <v>817.835254173352</v>
       </c>
       <c r="AB6" t="n">
-        <v>945.43852859717</v>
+        <v>1118.998275104972</v>
       </c>
       <c r="AC6" t="n">
-        <v>855.2072023591642</v>
+        <v>1012.202650252896</v>
       </c>
       <c r="AD6" t="n">
-        <v>690986.7303128882</v>
+        <v>817835.254173352</v>
       </c>
       <c r="AE6" t="n">
-        <v>945438.52859717</v>
+        <v>1118998.275104972</v>
       </c>
       <c r="AF6" t="n">
         <v>6.737095488852247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.78333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>855207.2023591641</v>
+        <v>1012202.650252896</v>
       </c>
     </row>
     <row r="7">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>648.1811242731454</v>
+        <v>755.539154628705</v>
       </c>
       <c r="AB7" t="n">
-        <v>886.8700099635357</v>
+        <v>1033.76200339804</v>
       </c>
       <c r="AC7" t="n">
-        <v>802.2283809424919</v>
+        <v>935.1012086878146</v>
       </c>
       <c r="AD7" t="n">
-        <v>648181.1242731455</v>
+        <v>755539.154628705</v>
       </c>
       <c r="AE7" t="n">
-        <v>886870.0099635357</v>
+        <v>1033762.00339804</v>
       </c>
       <c r="AF7" t="n">
         <v>6.964370072670483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.00833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>802228.3809424918</v>
+        <v>935101.2086878147</v>
       </c>
     </row>
     <row r="8">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>638.0686887184984</v>
+        <v>755.1885430209718</v>
       </c>
       <c r="AB8" t="n">
-        <v>873.0337295084971</v>
+        <v>1033.282281128447</v>
       </c>
       <c r="AC8" t="n">
-        <v>789.7126156747404</v>
+        <v>934.6672704383373</v>
       </c>
       <c r="AD8" t="n">
-        <v>638068.6887184983</v>
+        <v>755188.5430209718</v>
       </c>
       <c r="AE8" t="n">
-        <v>873033.7295084972</v>
+        <v>1033282.281128447</v>
       </c>
       <c r="AF8" t="n">
         <v>6.96975390375924e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.99166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>789712.6156747404</v>
+        <v>934667.2704383372</v>
       </c>
     </row>
   </sheetData>
@@ -9351,28 +9351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1134.626689353462</v>
+        <v>1305.880559932686</v>
       </c>
       <c r="AB2" t="n">
-        <v>1552.446292570153</v>
+        <v>1786.763393484199</v>
       </c>
       <c r="AC2" t="n">
-        <v>1404.282997279313</v>
+        <v>1616.237202948239</v>
       </c>
       <c r="AD2" t="n">
-        <v>1134626.689353462</v>
+        <v>1305880.559932686</v>
       </c>
       <c r="AE2" t="n">
-        <v>1552446.292570153</v>
+        <v>1786763.393484198</v>
       </c>
       <c r="AF2" t="n">
         <v>5.638342333315954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1404282.997279313</v>
+        <v>1616237.202948239</v>
       </c>
     </row>
     <row r="3">
@@ -9457,28 +9457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.8919961890945</v>
+        <v>784.6486420487734</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.2615856830292</v>
+        <v>1073.590888306127</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.9601290845466</v>
+        <v>971.1288807204645</v>
       </c>
       <c r="AD3" t="n">
-        <v>660891.9961890945</v>
+        <v>784648.6420487734</v>
       </c>
       <c r="AE3" t="n">
-        <v>904261.5856830293</v>
+        <v>1073590.888306127</v>
       </c>
       <c r="AF3" t="n">
         <v>7.819658345269666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>817960.1290845466</v>
+        <v>971128.8807204645</v>
       </c>
     </row>
     <row r="4">
@@ -9563,28 +9563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>571.8162924450318</v>
+        <v>695.5046074671491</v>
       </c>
       <c r="AB4" t="n">
-        <v>782.3842780777009</v>
+        <v>951.6200874343028</v>
       </c>
       <c r="AC4" t="n">
-        <v>707.7146206611953</v>
+        <v>860.7988018967534</v>
       </c>
       <c r="AD4" t="n">
-        <v>571816.2924450318</v>
+        <v>695504.607467149</v>
       </c>
       <c r="AE4" t="n">
-        <v>782384.2780777009</v>
+        <v>951620.0874343028</v>
       </c>
       <c r="AF4" t="n">
         <v>8.40645632299084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>707714.6206611954</v>
+        <v>860798.8018967534</v>
       </c>
     </row>
     <row r="5">
@@ -9669,28 +9669,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>574.2927671243442</v>
+        <v>697.9810821464615</v>
       </c>
       <c r="AB5" t="n">
-        <v>785.7726999882883</v>
+        <v>955.0085093448901</v>
       </c>
       <c r="AC5" t="n">
-        <v>710.7796563403161</v>
+        <v>863.8638375758743</v>
       </c>
       <c r="AD5" t="n">
-        <v>574292.7671243442</v>
+        <v>697981.0821464615</v>
       </c>
       <c r="AE5" t="n">
-        <v>785772.6999882883</v>
+        <v>955008.50934489</v>
       </c>
       <c r="AF5" t="n">
         <v>8.40118281175315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.775</v>
       </c>
       <c r="AH5" t="n">
-        <v>710779.6563403162</v>
+        <v>863863.8375758743</v>
       </c>
     </row>
   </sheetData>
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>806.2937192099988</v>
+        <v>956.5730024630819</v>
       </c>
       <c r="AB2" t="n">
-        <v>1103.206637791526</v>
+        <v>1308.825382992459</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.9181446409426</v>
+        <v>1183.91292538762</v>
       </c>
       <c r="AD2" t="n">
-        <v>806293.7192099988</v>
+        <v>956573.002463082</v>
       </c>
       <c r="AE2" t="n">
-        <v>1103206.637791526</v>
+        <v>1308825.382992459</v>
       </c>
       <c r="AF2" t="n">
         <v>7.453459374539627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.47083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>997918.1446409426</v>
+        <v>1183912.92538762</v>
       </c>
     </row>
     <row r="3">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.643455217613</v>
+        <v>676.8214235912408</v>
       </c>
       <c r="AB3" t="n">
-        <v>758.8876445710379</v>
+        <v>926.0569310113848</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.4604728786759</v>
+        <v>837.6753572447233</v>
       </c>
       <c r="AD3" t="n">
-        <v>554643.455217613</v>
+        <v>676821.4235912408</v>
       </c>
       <c r="AE3" t="n">
-        <v>758887.6445710378</v>
+        <v>926056.9310113848</v>
       </c>
       <c r="AF3" t="n">
         <v>9.239825670916894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>686460.4728786759</v>
+        <v>837675.3572447232</v>
       </c>
     </row>
     <row r="4">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.8151860343577</v>
+        <v>677.9931544079852</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.490858367623</v>
+        <v>927.6601448079699</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.9106782006395</v>
+        <v>839.1255625666871</v>
       </c>
       <c r="AD4" t="n">
-        <v>555815.1860343576</v>
+        <v>677993.1544079853</v>
       </c>
       <c r="AE4" t="n">
-        <v>760490.8583676229</v>
+        <v>927660.1448079699</v>
       </c>
       <c r="AF4" t="n">
         <v>9.253453732378422e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>687910.6782006396</v>
+        <v>839125.5625666871</v>
       </c>
     </row>
   </sheetData>
@@ -18000,28 +18000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.3218816445251</v>
+        <v>748.5039402651721</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.0152769022427</v>
+        <v>1024.136112734102</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.2727662645906</v>
+        <v>926.3939995188201</v>
       </c>
       <c r="AD2" t="n">
-        <v>618321.8816445251</v>
+        <v>748503.9402651722</v>
       </c>
       <c r="AE2" t="n">
-        <v>846015.2769022427</v>
+        <v>1024136.112734102</v>
       </c>
       <c r="AF2" t="n">
         <v>9.315171694135978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.38333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>765272.7662645906</v>
+        <v>926393.9995188201</v>
       </c>
     </row>
     <row r="3">
@@ -18106,28 +18106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>548.5493797337957</v>
+        <v>669.5269561632757</v>
       </c>
       <c r="AB3" t="n">
-        <v>750.5494616424432</v>
+        <v>916.0763188672521</v>
       </c>
       <c r="AC3" t="n">
-        <v>678.9180744260731</v>
+        <v>828.6472807157496</v>
       </c>
       <c r="AD3" t="n">
-        <v>548549.3797337958</v>
+        <v>669526.9561632758</v>
       </c>
       <c r="AE3" t="n">
-        <v>750549.4616424432</v>
+        <v>916076.3188672521</v>
       </c>
       <c r="AF3" t="n">
         <v>9.969609032531835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>678918.0744260731</v>
+        <v>828647.2807157496</v>
       </c>
     </row>
   </sheetData>
@@ -18403,28 +18403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.8135879020186</v>
+        <v>715.6287042994803</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.6440893688618</v>
+        <v>979.1547645327921</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.2359517168488</v>
+        <v>885.7056080581248</v>
       </c>
       <c r="AD2" t="n">
-        <v>569813.5879020187</v>
+        <v>715628.7042994803</v>
       </c>
       <c r="AE2" t="n">
-        <v>779644.0893688619</v>
+        <v>979154.7645327921</v>
       </c>
       <c r="AF2" t="n">
         <v>1.131049344242814e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>705235.9517168489</v>
+        <v>885705.6080581248</v>
       </c>
     </row>
   </sheetData>
@@ -18700,28 +18700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1567.697643370882</v>
+        <v>1769.625297180958</v>
       </c>
       <c r="AB2" t="n">
-        <v>2144.993077598862</v>
+        <v>2421.279401961169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1940.277948789518</v>
+        <v>2190.195894124978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1567697.643370882</v>
+        <v>1769625.297180958</v>
       </c>
       <c r="AE2" t="n">
-        <v>2144993.077598862</v>
+        <v>2421279.401961169</v>
       </c>
       <c r="AF2" t="n">
         <v>4.384072685430378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1940277.948789518</v>
+        <v>2190195.894124978</v>
       </c>
     </row>
     <row r="3">
@@ -18806,28 +18806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.1746084650797</v>
+        <v>940.759215929635</v>
       </c>
       <c r="AB3" t="n">
-        <v>1103.043665215532</v>
+        <v>1287.188262602373</v>
       </c>
       <c r="AC3" t="n">
-        <v>997.7707259388682</v>
+        <v>1164.340821399675</v>
       </c>
       <c r="AD3" t="n">
-        <v>806174.6084650797</v>
+        <v>940759.2159296351</v>
       </c>
       <c r="AE3" t="n">
-        <v>1103043.665215532</v>
+        <v>1287188.262602373</v>
       </c>
       <c r="AF3" t="n">
         <v>6.623738352389503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>997770.7259388681</v>
+        <v>1164340.821399675</v>
       </c>
     </row>
     <row r="4">
@@ -18912,28 +18912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.4881401994727</v>
+        <v>771.8660426983746</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.2360356336145</v>
+        <v>1056.101171946428</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.5096490749354</v>
+        <v>955.3083583431644</v>
       </c>
       <c r="AD4" t="n">
-        <v>656488.1401994727</v>
+        <v>771866.0426983746</v>
       </c>
       <c r="AE4" t="n">
-        <v>898236.0356336145</v>
+        <v>1056101.171946428</v>
       </c>
       <c r="AF4" t="n">
         <v>7.447573421960406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.3375</v>
       </c>
       <c r="AH4" t="n">
-        <v>812509.6490749354</v>
+        <v>955308.3583431644</v>
       </c>
     </row>
     <row r="5">
@@ -19018,28 +19018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.0609582416264</v>
+        <v>715.4046953217476</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.0298758873137</v>
+        <v>978.8482655668794</v>
       </c>
       <c r="AC5" t="n">
-        <v>742.6719368552958</v>
+        <v>885.4283609233448</v>
       </c>
       <c r="AD5" t="n">
-        <v>600060.9582416264</v>
+        <v>715404.6953217476</v>
       </c>
       <c r="AE5" t="n">
-        <v>821029.8758873136</v>
+        <v>978848.2655668794</v>
       </c>
       <c r="AF5" t="n">
         <v>7.762057453269679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>742671.9368552958</v>
+        <v>885428.3609233449</v>
       </c>
     </row>
     <row r="6">
@@ -19124,28 +19124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>604.7569686480299</v>
+        <v>720.100705728151</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.4551644987124</v>
+        <v>985.2735541782782</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.4840049395719</v>
+        <v>891.2404290076209</v>
       </c>
       <c r="AD6" t="n">
-        <v>604756.9686480298</v>
+        <v>720100.7057281509</v>
       </c>
       <c r="AE6" t="n">
-        <v>827455.1644987124</v>
+        <v>985273.5541782782</v>
       </c>
       <c r="AF6" t="n">
         <v>7.729434628445066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.44583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>748484.004939572</v>
+        <v>891240.4290076209</v>
       </c>
     </row>
   </sheetData>
@@ -19421,28 +19421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2435.056974322099</v>
+        <v>2697.869520894456</v>
       </c>
       <c r="AB2" t="n">
-        <v>3331.752379399567</v>
+        <v>3691.344100091144</v>
       </c>
       <c r="AC2" t="n">
-        <v>3013.774608453381</v>
+        <v>3339.047400012289</v>
       </c>
       <c r="AD2" t="n">
-        <v>2435056.974322099</v>
+        <v>2697869.520894456</v>
       </c>
       <c r="AE2" t="n">
-        <v>3331752.379399567</v>
+        <v>3691344.100091144</v>
       </c>
       <c r="AF2" t="n">
         <v>3.167495955184173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>3013774.60845338</v>
+        <v>3339047.400012289</v>
       </c>
     </row>
     <row r="3">
@@ -19527,28 +19527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1009.228310278476</v>
+        <v>1164.941240128273</v>
       </c>
       <c r="AB3" t="n">
-        <v>1380.870698133714</v>
+        <v>1593.923998323841</v>
       </c>
       <c r="AC3" t="n">
-        <v>1249.082336768029</v>
+        <v>1441.802129010195</v>
       </c>
       <c r="AD3" t="n">
-        <v>1009228.310278476</v>
+        <v>1164941.240128273</v>
       </c>
       <c r="AE3" t="n">
-        <v>1380870.698133714</v>
+        <v>1593923.998323841</v>
       </c>
       <c r="AF3" t="n">
         <v>5.461660726298458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1249082.336768029</v>
+        <v>1441802.129010195</v>
       </c>
     </row>
     <row r="4">
@@ -19633,28 +19633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>799.7319520746429</v>
+        <v>935.97222433852</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.228538512196</v>
+        <v>1280.638489520246</v>
       </c>
       <c r="AC4" t="n">
-        <v>989.7969025559908</v>
+        <v>1158.416149467841</v>
       </c>
       <c r="AD4" t="n">
-        <v>799731.9520746429</v>
+        <v>935972.2243385201</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094228.538512196</v>
+        <v>1280638.489520246</v>
       </c>
       <c r="AF4" t="n">
         <v>6.299618460068486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>989796.9025559907</v>
+        <v>1158416.149467841</v>
       </c>
     </row>
     <row r="5">
@@ -19739,28 +19739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>709.1812770778264</v>
+        <v>825.9499027856411</v>
       </c>
       <c r="AB5" t="n">
-        <v>970.3331101677111</v>
+        <v>1130.101095329337</v>
       </c>
       <c r="AC5" t="n">
-        <v>877.7258800043774</v>
+        <v>1022.245832897954</v>
       </c>
       <c r="AD5" t="n">
-        <v>709181.2770778264</v>
+        <v>825949.9027856411</v>
       </c>
       <c r="AE5" t="n">
-        <v>970333.110167711</v>
+        <v>1130101.095329337</v>
       </c>
       <c r="AF5" t="n">
         <v>6.776373962443273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>877725.8800043773</v>
+        <v>1022245.832897953</v>
       </c>
     </row>
     <row r="6">
@@ -19845,28 +19845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>657.7492848478595</v>
+        <v>774.4837451368934</v>
       </c>
       <c r="AB6" t="n">
-        <v>899.9615893793125</v>
+        <v>1059.682827907691</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.070518392974</v>
+        <v>958.5481860863698</v>
       </c>
       <c r="AD6" t="n">
-        <v>657749.2848478595</v>
+        <v>774483.7451368934</v>
       </c>
       <c r="AE6" t="n">
-        <v>899961.5893793125</v>
+        <v>1059682.827907691</v>
       </c>
       <c r="AF6" t="n">
         <v>6.998440622659064e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>814070.518392974</v>
+        <v>958548.1860863698</v>
       </c>
     </row>
     <row r="7">
@@ -19951,28 +19951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>637.4673701692612</v>
+        <v>744.5338325028968</v>
       </c>
       <c r="AB7" t="n">
-        <v>872.2109789411286</v>
+        <v>1018.704036144963</v>
       </c>
       <c r="AC7" t="n">
-        <v>788.9683872667842</v>
+        <v>921.4803526953818</v>
       </c>
       <c r="AD7" t="n">
-        <v>637467.3701692612</v>
+        <v>744533.8325028968</v>
       </c>
       <c r="AE7" t="n">
-        <v>872210.9789411286</v>
+        <v>1018704.036144963</v>
       </c>
       <c r="AF7" t="n">
         <v>7.112028701955283e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.02916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>788968.3872667842</v>
+        <v>921480.3526953819</v>
       </c>
     </row>
     <row r="8">
@@ -20057,28 +20057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>639.2814566061716</v>
+        <v>746.3479189398072</v>
       </c>
       <c r="AB8" t="n">
-        <v>874.6930920359548</v>
+        <v>1021.186149239789</v>
       </c>
       <c r="AC8" t="n">
-        <v>791.2136109715074</v>
+        <v>923.7255764001053</v>
       </c>
       <c r="AD8" t="n">
-        <v>639281.4566061716</v>
+        <v>746347.9189398072</v>
       </c>
       <c r="AE8" t="n">
-        <v>874693.0920359548</v>
+        <v>1021186.149239789</v>
       </c>
       <c r="AF8" t="n">
         <v>7.112028701955283e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.025</v>
       </c>
       <c r="AH8" t="n">
-        <v>791213.6109715074</v>
+        <v>923725.5764001053</v>
       </c>
     </row>
   </sheetData>
@@ -20354,28 +20354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.9969128132511</v>
+        <v>786.3953106072537</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.7801049119989</v>
+        <v>1075.980757285418</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.2965299871003</v>
+        <v>973.2906639585747</v>
       </c>
       <c r="AD2" t="n">
-        <v>623996.9128132511</v>
+        <v>786395.3106072537</v>
       </c>
       <c r="AE2" t="n">
-        <v>853780.104911999</v>
+        <v>1075980.757285418</v>
       </c>
       <c r="AF2" t="n">
         <v>1.153420308694117e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>772296.5299871003</v>
+        <v>973290.6639585746</v>
       </c>
     </row>
   </sheetData>
@@ -20651,28 +20651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.2596616046736</v>
+        <v>1063.282067565202</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.193915063361</v>
+        <v>1454.829433536881</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.068039660876</v>
+        <v>1315.982554266054</v>
       </c>
       <c r="AD2" t="n">
-        <v>912259.6616046736</v>
+        <v>1063282.067565202</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248193.915063361</v>
+        <v>1454829.433536881</v>
       </c>
       <c r="AF2" t="n">
         <v>6.753622715603815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.07083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129068.039660876</v>
+        <v>1315982.554266054</v>
       </c>
     </row>
     <row r="3">
@@ -20757,28 +20757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.5942845113665</v>
+        <v>682.8442590298364</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.3440287947888</v>
+        <v>934.2976401672182</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.9645285028275</v>
+        <v>845.1295846846318</v>
       </c>
       <c r="AD3" t="n">
-        <v>569594.2845113665</v>
+        <v>682844.2590298364</v>
       </c>
       <c r="AE3" t="n">
-        <v>779344.0287947888</v>
+        <v>934297.6401672182</v>
       </c>
       <c r="AF3" t="n">
         <v>8.871407424914925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>704964.5285028275</v>
+        <v>845129.5846846318</v>
       </c>
     </row>
     <row r="4">
@@ -20863,28 +20863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.0521344570805</v>
+        <v>677.3021089755504</v>
       </c>
       <c r="AB4" t="n">
-        <v>771.7610145881102</v>
+        <v>926.7146259605398</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.1052265292074</v>
+        <v>838.2702827110116</v>
       </c>
       <c r="AD4" t="n">
-        <v>564052.1344570805</v>
+        <v>677302.1089755504</v>
       </c>
       <c r="AE4" t="n">
-        <v>771761.0145881103</v>
+        <v>926714.6259605398</v>
       </c>
       <c r="AF4" t="n">
         <v>8.943143873094831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>698105.2265292073</v>
+        <v>838270.2827110116</v>
       </c>
     </row>
   </sheetData>
@@ -21160,28 +21160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1266.189357410395</v>
+        <v>1447.631883217231</v>
       </c>
       <c r="AB2" t="n">
-        <v>1732.456139140926</v>
+        <v>1980.713807629136</v>
       </c>
       <c r="AC2" t="n">
-        <v>1567.112956738778</v>
+        <v>1791.6772617783</v>
       </c>
       <c r="AD2" t="n">
-        <v>1266189.357410395</v>
+        <v>1447631.883217231</v>
       </c>
       <c r="AE2" t="n">
-        <v>1732456.139140926</v>
+        <v>1980713.807629136</v>
       </c>
       <c r="AF2" t="n">
         <v>5.174025911271542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>1567112.956738778</v>
+        <v>1791677.2617783</v>
       </c>
     </row>
     <row r="3">
@@ -21266,28 +21266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>711.4795667108749</v>
+        <v>835.6265702417588</v>
       </c>
       <c r="AB3" t="n">
-        <v>973.4777314370305</v>
+        <v>1143.341138647236</v>
       </c>
       <c r="AC3" t="n">
-        <v>880.5703830332567</v>
+        <v>1034.222265064109</v>
       </c>
       <c r="AD3" t="n">
-        <v>711479.5667108749</v>
+        <v>835626.5702417588</v>
       </c>
       <c r="AE3" t="n">
-        <v>973477.7314370305</v>
+        <v>1143341.138647236</v>
       </c>
       <c r="AF3" t="n">
         <v>7.381943570670832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>880570.3830332567</v>
+        <v>1034222.26506411</v>
       </c>
     </row>
     <row r="4">
@@ -21372,28 +21372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.6803130260545</v>
+        <v>699.3396884155208</v>
       </c>
       <c r="AB4" t="n">
-        <v>799.9853985571907</v>
+        <v>956.8674143796954</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.6359149054504</v>
+        <v>865.5453313231475</v>
       </c>
       <c r="AD4" t="n">
-        <v>584680.3130260545</v>
+        <v>699339.6884155207</v>
       </c>
       <c r="AE4" t="n">
-        <v>799985.3985571907</v>
+        <v>956867.4143796954</v>
       </c>
       <c r="AF4" t="n">
         <v>8.146614424617924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>723635.9149054503</v>
+        <v>865545.3313231475</v>
       </c>
     </row>
     <row r="5">
@@ -21478,28 +21478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>582.0439458882487</v>
+        <v>696.7033212777148</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.3782047309352</v>
+        <v>953.26022055344</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.3729865952442</v>
+        <v>862.2824030129414</v>
       </c>
       <c r="AD5" t="n">
-        <v>582043.9458882487</v>
+        <v>696703.3212777148</v>
       </c>
       <c r="AE5" t="n">
-        <v>796378.2047309352</v>
+        <v>953260.22055344</v>
       </c>
       <c r="AF5" t="n">
         <v>8.174849849612338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.59166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>720372.9865952443</v>
+        <v>862282.4030129414</v>
       </c>
     </row>
   </sheetData>
